--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>0.1158754526856667</v>
+        <v>0.10005961977</v>
       </c>
       <c r="R2">
-        <v>1.042879074171</v>
+        <v>0.9005365779300001</v>
       </c>
       <c r="S2">
-        <v>0.002457656076071823</v>
+        <v>0.0004160859488654806</v>
       </c>
       <c r="T2">
-        <v>0.002457656076071823</v>
+        <v>0.0004160859488654804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H3">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.3702007975136667</v>
+        <v>4.243429395510001</v>
       </c>
       <c r="R3">
-        <v>3.331807177623001</v>
+        <v>38.19086455959001</v>
       </c>
       <c r="S3">
-        <v>0.007851759956823362</v>
+        <v>0.01764579308349346</v>
       </c>
       <c r="T3">
-        <v>0.007851759956823362</v>
+        <v>0.01764579308349346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H4">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>0.8683682885726668</v>
+        <v>1.86686695167</v>
       </c>
       <c r="R4">
-        <v>7.815314597154002</v>
+        <v>16.80180256503</v>
       </c>
       <c r="S4">
-        <v>0.0184176247101099</v>
+        <v>0.007763142702088436</v>
       </c>
       <c r="T4">
-        <v>0.01841762471010989</v>
+        <v>0.007763142702088434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>170.579399</v>
       </c>
       <c r="I5">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J5">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>3.622026098566333</v>
@@ -762,10 +762,10 @@
         <v>32.59823488709701</v>
       </c>
       <c r="S5">
-        <v>0.07682122695114506</v>
+        <v>0.01506176187258869</v>
       </c>
       <c r="T5">
-        <v>0.07682122695114506</v>
+        <v>0.01506176187258869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>170.579399</v>
       </c>
       <c r="I6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>11.57170840956234</v>
+        <v>153.6065403135679</v>
       </c>
       <c r="R6">
-        <v>104.145375686061</v>
+        <v>1382.458862822111</v>
       </c>
       <c r="S6">
-        <v>0.2454297163389646</v>
+        <v>0.6387544068749021</v>
       </c>
       <c r="T6">
-        <v>0.2454297163389646</v>
+        <v>0.6387544068749021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>27.14339000607534</v>
+        <v>67.57811829629857</v>
       </c>
       <c r="R7">
-        <v>244.2905100546781</v>
+        <v>608.2030646666871</v>
       </c>
       <c r="S7">
-        <v>0.5756967142521456</v>
+        <v>0.2810155139355181</v>
       </c>
       <c r="T7">
-        <v>0.5756967142521455</v>
+        <v>0.281015513935518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H8">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I8">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J8">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>0.102654416304</v>
+        <v>0.05907479980966667</v>
       </c>
       <c r="R8">
-        <v>0.923889746736</v>
+        <v>0.531673198287</v>
       </c>
       <c r="S8">
-        <v>0.002177244999849215</v>
+        <v>0.0002456554820950172</v>
       </c>
       <c r="T8">
-        <v>0.002177244999849215</v>
+        <v>0.0002456554820950171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H9">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I9">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J9">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>0.3279620135520001</v>
+        <v>2.505303764120112</v>
       </c>
       <c r="R9">
-        <v>2.951658121968</v>
+        <v>22.547733877081</v>
       </c>
       <c r="S9">
-        <v>0.006955898049548881</v>
+        <v>0.01041800574783632</v>
       </c>
       <c r="T9">
-        <v>0.006955898049548881</v>
+        <v>0.01041800574783632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H10">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>0.769290110496</v>
+        <v>1.102190790797445</v>
       </c>
       <c r="R10">
-        <v>6.923610994464001</v>
+        <v>9.919717117177001</v>
       </c>
       <c r="S10">
-        <v>0.01631622980107093</v>
+        <v>0.004583328440323026</v>
       </c>
       <c r="T10">
-        <v>0.01631622980107093</v>
+        <v>0.004583328440323025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H11">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I11">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J11">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.07940121560066667</v>
+        <v>0.04975099060799999</v>
       </c>
       <c r="R11">
-        <v>0.714610940406</v>
+        <v>0.4477589154719999</v>
       </c>
       <c r="S11">
-        <v>0.001684057109988796</v>
+        <v>0.0002068835378518377</v>
       </c>
       <c r="T11">
-        <v>0.001684057109988796</v>
+        <v>0.0002068835378518377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H12">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I12">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J12">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>0.2536723064086667</v>
+        <v>2.109890248304</v>
       </c>
       <c r="R12">
-        <v>2.283050757678</v>
+        <v>18.989012234736</v>
       </c>
       <c r="S12">
-        <v>0.005380253286842433</v>
+        <v>0.008773725984423596</v>
       </c>
       <c r="T12">
-        <v>0.005380253286842433</v>
+        <v>0.008773725984423596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H13">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I13">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J13">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>0.5950310967826667</v>
+        <v>0.9282313923679999</v>
       </c>
       <c r="R13">
-        <v>5.355279871044001</v>
+        <v>8.354082531311999</v>
       </c>
       <c r="S13">
-        <v>0.01262028977290453</v>
+        <v>0.003859939109782262</v>
       </c>
       <c r="T13">
-        <v>0.01262028977290453</v>
+        <v>0.003859939109782261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H14">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I14">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J14">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>0.11371456613</v>
+        <v>0.04361068134866666</v>
       </c>
       <c r="R14">
-        <v>1.02343109517</v>
+        <v>0.392496132138</v>
       </c>
       <c r="S14">
-        <v>0.002411824833559723</v>
+        <v>0.0001813497969644552</v>
       </c>
       <c r="T14">
-        <v>0.002411824833559724</v>
+        <v>0.0001813497969644551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H15">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I15">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J15">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>0.36329716169</v>
+        <v>1.849485812743778</v>
       </c>
       <c r="R15">
-        <v>3.26967445521</v>
+        <v>16.645372314694</v>
       </c>
       <c r="S15">
-        <v>0.007705337551251001</v>
+        <v>0.007690865316874461</v>
       </c>
       <c r="T15">
-        <v>0.007705337551251002</v>
+        <v>0.007690865316874461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H16">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I16">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J16">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>0.85217464862</v>
+        <v>0.8136682903331112</v>
       </c>
       <c r="R16">
-        <v>7.66957183758</v>
+        <v>7.323014612998</v>
       </c>
       <c r="S16">
-        <v>0.01807416630972417</v>
+        <v>0.003383542166392602</v>
       </c>
       <c r="T16">
-        <v>0.01807416630972417</v>
+        <v>0.003383542166392601</v>
       </c>
     </row>
   </sheetData>
